--- a/LF/PreTAS/Senegal/aout 2021/sn_lf_pretas_2_partcipants_202107.xlsx
+++ b/LF/PreTAS/Senegal/aout 2021/sn_lf_pretas_2_partcipants_202107.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\july 2021\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Repositories\WHO\dsa-forms\LF\PreTAS\Senegal\aout 2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{563CA982-F07E-4C43-B026-6C948A6D602A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E35A8F-30F9-4A62-B78F-428BB7573FFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13986" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,10 @@
     <t>L'age doit être compris entre 6 et 120 ans</t>
   </si>
   <si>
-    <t>sn_lf_pretas_2_partcipants_202107_v2</t>
-  </si>
-  <si>
-    <t>(Juillet 2021) 2. Pre-TAS FL Formulaire Participants V2</t>
+    <t>sn_lf_pretas_2_partcipants_202108</t>
+  </si>
+  <si>
+    <t>(Août 2021) 2. Pre-TAS FL Formulaire Participants</t>
   </si>
 </sst>
 </file>
